--- a/Student_loans_by_state.xlsx
+++ b/Student_loans_by_state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devrl/Desktop/Practice/Data_Analyst/Portfolio_Projects/Student_Loan_Project /Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF75AAE-0EBC-5741-BA79-D02F700833DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F618D33A-499D-5341-9375-FEEB54C3B443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{EB233D89-917C-F74E-AD22-C4EAF0F2F38E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{EB233D89-917C-F74E-AD22-C4EAF0F2F38E}"/>
   </bookViews>
   <sheets>
     <sheet name="DynamicReportTable" sheetId="2" r:id="rId1"/>
@@ -920,6 +920,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1039,12 +1045,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3586,96 +3586,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
     </row>
     <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
     </row>
     <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
     </row>
     <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="B5"/>
@@ -3701,42 +3701,42 @@
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="36" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="36" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="36" t="s">
+      <c r="I6" s="39"/>
+      <c r="J6" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="36" t="s">
+      <c r="K6" s="39"/>
+      <c r="L6" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="36" t="s">
+      <c r="M6" s="39"/>
+      <c r="N6" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="O6" s="37"/>
-      <c r="P6" s="36" t="s">
+      <c r="O6" s="39"/>
+      <c r="P6" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="36" t="s">
+      <c r="Q6" s="39"/>
+      <c r="R6" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="S6" s="37"/>
+      <c r="S6" s="39"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
     </row>
@@ -7471,53 +7471,53 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
@@ -7943,50 +7943,50 @@
       <c r="L17" s="8"/>
     </row>
     <row r="19" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -8917,8 +8917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4996B758-D434-A340-8DBE-3E6044F6D9B2}">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8933,74 +8933,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
@@ -9031,11 +9031,11 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="45"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="47"/>
       <c r="O6" s="11"/>
       <c r="R6"/>
     </row>
@@ -9051,9 +9051,9 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="50"/>
       <c r="O7" s="12"/>
       <c r="R7"/>
     </row>
@@ -9069,11 +9069,11 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="50"/>
-      <c r="N8" s="51"/>
+      <c r="L8" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="52"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="12"/>
       <c r="R8"/>
     </row>
@@ -9123,11 +9123,11 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="43" t="s">
+      <c r="L11" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="M11" s="44"/>
-      <c r="N11" s="45"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="47"/>
       <c r="O11" s="12"/>
     </row>
     <row r="12" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9142,10 +9142,10 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="75"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="77"/>
     </row>
     <row r="13" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
@@ -9159,15 +9159,15 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="63" t="s">
+      <c r="L13" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="M13" s="64"/>
-      <c r="N13" s="71">
+      <c r="M13" s="66"/>
+      <c r="N13" s="73">
         <f>SUMIF(dynamicreport[Location],$L$8,dynamicreport[Total Dollars OutStanding])</f>
-        <v>93.63</v>
-      </c>
-      <c r="O13" s="75"/>
+        <v>23.78</v>
+      </c>
+      <c r="O13" s="77"/>
     </row>
     <row r="14" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
@@ -9181,9 +9181,9 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="72"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="74"/>
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9198,13 +9198,13 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="67" t="s">
+      <c r="L15" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="M15" s="68"/>
-      <c r="N15" s="73">
+      <c r="M15" s="70"/>
+      <c r="N15" s="75">
         <f>SUMIF(dynamicreport[Location],$L$8,dynamicreport[Total Borrowers])</f>
-        <v>2436.5</v>
+        <v>629.10000000000014</v>
       </c>
       <c r="O15" s="12"/>
     </row>
@@ -9220,9 +9220,9 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="74"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="76"/>
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -9288,11 +9288,11 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="59" t="s">
+      <c r="L20" s="61" t="s">
         <v>91</v>
       </c>
       <c r="M20" s="14"/>
-      <c r="N20" s="61" t="s">
+      <c r="N20" s="63" t="s">
         <v>107</v>
       </c>
       <c r="O20" s="12"/>
@@ -9309,9 +9309,9 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="60"/>
+      <c r="L21" s="62"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="62"/>
+      <c r="N21" s="64"/>
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9331,11 +9331,11 @@
       </c>
       <c r="M22" s="16">
         <f t="shared" ref="M22:M30" si="0">$N22/$N$13</f>
-        <v>9.9327138737584121E-3</v>
-      </c>
-      <c r="N22" s="76">
+        <v>1.0513036164844407E-2</v>
+      </c>
+      <c r="N22" s="36">
         <f>SUMIF(dynamicreport[Location],$L$8,dynamicreport[Dollars Outstanding &lt;5k(in billions)])</f>
-        <v>0.93</v>
+        <v>0.25</v>
       </c>
       <c r="O22" s="12"/>
     </row>
@@ -9356,11 +9356,11 @@
       </c>
       <c r="M23" s="16">
         <f t="shared" si="0"/>
-        <v>3.0652568621168431E-2</v>
-      </c>
-      <c r="N23" s="76">
+        <v>3.0277544154751888E-2</v>
+      </c>
+      <c r="N23" s="36">
         <f>SUMIF(dynamicreport[Location],$L$8,dynamicreport[Dollars Outstanding (in billions)2])</f>
-        <v>2.87</v>
+        <v>0.72</v>
       </c>
       <c r="O23" s="12"/>
       <c r="P23"/>
@@ -9382,11 +9382,11 @@
       </c>
       <c r="M24" s="16">
         <f t="shared" si="0"/>
-        <v>7.8073267115240846E-2</v>
-      </c>
-      <c r="N24" s="76">
+        <v>7.5273338940285955E-2</v>
+      </c>
+      <c r="N24" s="36">
         <f>SUMIF(dynamicreport[Location],$L$8,dynamicreport[Dollars Outstanding (in billions)4])</f>
-        <v>7.31</v>
+        <v>1.79</v>
       </c>
       <c r="O24" s="12"/>
     </row>
@@ -9407,11 +9407,11 @@
       </c>
       <c r="M25" s="16">
         <f t="shared" si="0"/>
-        <v>0.16586564135426679</v>
-      </c>
-      <c r="N25" s="76">
+        <v>0.15979814970563497</v>
+      </c>
+      <c r="N25" s="36">
         <f>SUMIF(dynamicreport[Location],$L$8,dynamicreport[Dollars Outstanding (in billions)6])</f>
-        <v>15.53</v>
+        <v>3.8</v>
       </c>
       <c r="O25" s="12"/>
     </row>
@@ -9432,11 +9432,11 @@
       </c>
       <c r="M26" s="16">
         <f t="shared" si="0"/>
-        <v>0.11844494286019439</v>
-      </c>
-      <c r="N26" s="76">
+        <v>0.13582842724978972</v>
+      </c>
+      <c r="N26" s="36">
         <f>SUMIF(dynamicreport[Location],$L$8,dynamicreport[Dollars Outstanding (in billions)8])</f>
-        <v>11.09</v>
+        <v>3.23</v>
       </c>
       <c r="O26" s="12"/>
     </row>
@@ -9457,11 +9457,11 @@
       </c>
       <c r="M27" s="16">
         <f t="shared" si="0"/>
-        <v>9.7618284737797725E-2</v>
-      </c>
-      <c r="N27" s="76">
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="N27" s="36">
         <f>SUMIF(dynamicreport[Location],$L$8,dynamicreport[Dollars Outstanding (in billions)10])</f>
-        <v>9.14</v>
+        <v>2.9</v>
       </c>
       <c r="O27" s="13"/>
     </row>
@@ -9482,11 +9482,11 @@
       </c>
       <c r="M28" s="16">
         <f t="shared" si="0"/>
-        <v>7.3267115240841618E-2</v>
-      </c>
-      <c r="N28" s="76">
+        <v>8.5786375105130361E-2</v>
+      </c>
+      <c r="N28" s="36">
         <f>SUMIF(dynamicreport[Location],$L$8,dynamicreport[Dollars Outstanding (in billions)12])</f>
-        <v>6.86</v>
+        <v>2.04</v>
       </c>
       <c r="O28" s="11"/>
     </row>
@@ -9507,11 +9507,11 @@
       </c>
       <c r="M29" s="16">
         <f t="shared" si="0"/>
-        <v>0.21563601409804553</v>
-      </c>
-      <c r="N29" s="76">
+        <v>0.22329688814129517</v>
+      </c>
+      <c r="N29" s="36">
         <f>SUMIF(dynamicreport[Location],$L$8,dynamicreport[Dollars Outstanding (in billions)14])</f>
-        <v>20.190000000000001</v>
+        <v>5.31</v>
       </c>
       <c r="O29" s="11"/>
     </row>
@@ -9532,11 +9532,11 @@
       </c>
       <c r="M30" s="17">
         <f t="shared" si="0"/>
-        <v>0.21050945209868635</v>
-      </c>
-      <c r="N30" s="77">
+        <v>0.15727502102607233</v>
+      </c>
+      <c r="N30" s="37">
         <f>SUMIF(dynamicreport[Location],$L$8,dynamicreport[Dollars Outstanding (in billions)16])</f>
-        <v>19.71</v>
+        <v>3.74</v>
       </c>
       <c r="O30" s="11"/>
     </row>
@@ -9603,11 +9603,11 @@
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
-      <c r="L34" s="43" t="s">
+      <c r="L34" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="M34" s="44"/>
-      <c r="N34" s="45"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="47"/>
       <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9622,9 +9622,9 @@
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="50"/>
       <c r="O35" s="11"/>
     </row>
     <row r="36" spans="1:15" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -9639,11 +9639,11 @@
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
-      <c r="L36" s="52" t="s">
+      <c r="L36" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="53"/>
-      <c r="N36" s="54"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="56"/>
       <c r="O36" s="11"/>
     </row>
     <row r="37" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9658,9 +9658,9 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="59"/>
       <c r="O37" s="11"/>
     </row>
     <row r="38" spans="1:15" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -9895,7 +9895,7 @@
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFC1B8C8"/>
+        <color rgb="FF00B0F0"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
